--- a/data/trans_dic/P29_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6368262251320352</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5677230693520583</v>
+        <v>0.5677230693520582</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2623749241339373</v>
@@ -697,7 +697,7 @@
         <v>0.4565431308877661</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4310434477756061</v>
+        <v>0.431043447775606</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5975708079916667</v>
+        <v>0.5984937686271786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5728237899884305</v>
+        <v>0.5709244515725124</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5994990835120285</v>
+        <v>0.600105130805482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5243348904115148</v>
+        <v>0.5257599770218727</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2340042083791569</v>
+        <v>0.2288326318420297</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2195876517947991</v>
+        <v>0.2204572407387426</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2404286582893339</v>
+        <v>0.2423740829554552</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2757633580598078</v>
+        <v>0.2754522942973292</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4187458868201701</v>
+        <v>0.4217231006710627</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4028942150889012</v>
+        <v>0.4067734661053762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4309149089509614</v>
+        <v>0.4292481688818952</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4052787665938901</v>
+        <v>0.4046087985073251</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6717962718551072</v>
+        <v>0.6697470059883963</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6452423009369642</v>
+        <v>0.6501847449069469</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6792862481173485</v>
+        <v>0.6732807053785452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6044932603686436</v>
+        <v>0.6085439279113989</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2998595770071516</v>
+        <v>0.2946063740470964</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2873798915035651</v>
+        <v>0.2890777901352412</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3067192678218123</v>
+        <v>0.3113024223804713</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3347139745510635</v>
+        <v>0.3326067727925987</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4736590985424098</v>
+        <v>0.4763766494819251</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4589947218144115</v>
+        <v>0.4581025699562091</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4847418548142112</v>
+        <v>0.4830617440065383</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4552311109000429</v>
+        <v>0.4608075979661784</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.5628975877831808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5838450528670202</v>
+        <v>0.58384505286702</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2886334643094816</v>
@@ -821,7 +821,7 @@
         <v>0.3114548748429711</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3297933729024825</v>
+        <v>0.3297933729024826</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4462814453907366</v>
@@ -833,7 +833,7 @@
         <v>0.436059932227594</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4555303339810587</v>
+        <v>0.4555303339810589</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5736705875532465</v>
+        <v>0.573052891983684</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5517762422540079</v>
+        <v>0.5562867932618909</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5318718509092625</v>
+        <v>0.5300602219069941</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5459105843871541</v>
+        <v>0.5507845697873318</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2600962192192695</v>
+        <v>0.2577916402396946</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2609204726748698</v>
+        <v>0.2610205398274574</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2816695784717493</v>
+        <v>0.2822917868815186</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3031073861641069</v>
+        <v>0.3037582638741591</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4240623327995528</v>
+        <v>0.4247062733893585</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4120920764535099</v>
+        <v>0.4133138503137307</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4139820989974328</v>
+        <v>0.4134714466147282</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4335825433929715</v>
+        <v>0.4336008650203459</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6378511325527335</v>
+        <v>0.6342312162315134</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6162369730919934</v>
+        <v>0.6187658833145565</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5955201591434417</v>
+        <v>0.5953540215547766</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6153771000664026</v>
+        <v>0.6170606469677424</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3179101413269338</v>
+        <v>0.3192101793462822</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3187756125890365</v>
+        <v>0.3224551691491546</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3406063032341424</v>
+        <v>0.3414602119901628</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.356350326014604</v>
+        <v>0.3555021156330171</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4705060245748486</v>
+        <v>0.46891467217485</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4575812400503748</v>
+        <v>0.457315377567884</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4578039210716353</v>
+        <v>0.4594746204505605</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4768064770981615</v>
+        <v>0.479450002772243</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5617613508633008</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5497079277523171</v>
+        <v>0.549707927752317</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1906127860459687</v>
@@ -957,7 +957,7 @@
         <v>0.2991200604983573</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3625782037941256</v>
+        <v>0.3625782037941255</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.338669376450813</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4453054379219759</v>
+        <v>0.4475702493239847</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5723664249774472</v>
+        <v>0.5694389559805135</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5249552568903669</v>
+        <v>0.528156323233245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5058532147358974</v>
+        <v>0.5072189220784699</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1636323385722366</v>
+        <v>0.1633793945593976</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2347665339850727</v>
+        <v>0.2337945075457102</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2657375501595834</v>
+        <v>0.269765984550866</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3323269528677859</v>
+        <v>0.3314717509259905</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.312340311076152</v>
+        <v>0.3124262169668384</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4114314284565502</v>
+        <v>0.4061226270080466</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4019969066306948</v>
+        <v>0.4019357100334626</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4261315884531167</v>
+        <v>0.4302497167680299</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5265990215618745</v>
+        <v>0.5282037177449861</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6463495882805574</v>
+        <v>0.6466442631075486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6045026249059169</v>
+        <v>0.5990321178791862</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5870186826206694</v>
+        <v>0.5909685124813607</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2191229918847244</v>
+        <v>0.2221640567562463</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3058244833676076</v>
+        <v>0.3002584182425942</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3360204298704543</v>
+        <v>0.336800262443892</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3937134790563157</v>
+        <v>0.3951120590855897</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3636892801184104</v>
+        <v>0.3647008840854822</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4653360928325947</v>
+        <v>0.4602631786516253</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4530556377460008</v>
+        <v>0.4537156668663775</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.479788399017637</v>
+        <v>0.4815533951449555</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.4981246183823174</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.478003933106236</v>
+        <v>0.4780039331062358</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5315121918300746</v>
+        <v>0.5307611300134607</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5606099410161581</v>
+        <v>0.5624252807212388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5839702938374651</v>
+        <v>0.5841954331873579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5406905213653359</v>
+        <v>0.5435586912956355</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2640497550913812</v>
+        <v>0.2659101812307579</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3190437598684778</v>
+        <v>0.3236160160713077</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3630404923345824</v>
+        <v>0.3620541483371104</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3676426142000647</v>
+        <v>0.3658097640668735</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3979439087841555</v>
+        <v>0.3985973955868857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4429604485666349</v>
+        <v>0.4424427818145644</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4760024677530702</v>
+        <v>0.476018609999722</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4563162345234715</v>
+        <v>0.4577778388606161</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5947373889377781</v>
+        <v>0.5919226126945371</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6261289353098729</v>
+        <v>0.6239802143909665</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6501152894725553</v>
+        <v>0.6449020859021647</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6070329229967072</v>
+        <v>0.6073226948471865</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3214904839815863</v>
+        <v>0.3216161314020794</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3839759555931739</v>
+        <v>0.3824619085882681</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4257014688705252</v>
+        <v>0.4238292859219556</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.419353554581031</v>
+        <v>0.4190632748779922</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4436132720047082</v>
+        <v>0.4421687848739474</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4887357614780323</v>
+        <v>0.4899774904890513</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5213777752420574</v>
+        <v>0.5220043605268933</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5000018739964075</v>
+        <v>0.4990282235988355</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5568683724871063</v>
+        <v>0.5565381121046986</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5797613428813038</v>
+        <v>0.5779652463914157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5759444107287379</v>
+        <v>0.573439454879819</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5513029525160253</v>
+        <v>0.5514895018504656</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2503897932298049</v>
+        <v>0.2484804892989605</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2807506788307395</v>
+        <v>0.2822614337879117</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3102422836390898</v>
+        <v>0.3094676576424689</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3356856257961684</v>
+        <v>0.3373246075142552</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4055804652034533</v>
+        <v>0.4044185798886609</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4313900566718109</v>
+        <v>0.4312437422799805</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4447145143967174</v>
+        <v>0.4439416219361253</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4448538803042219</v>
+        <v>0.444265964261615</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.590402892886401</v>
+        <v>0.591015818389501</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6142046269486326</v>
+        <v>0.6134406279306226</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6096669932340287</v>
+        <v>0.6090254850386954</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5879442276979255</v>
+        <v>0.5895430519135003</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.281104229782964</v>
+        <v>0.2801662290495667</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3125867668061417</v>
+        <v>0.3127224894696961</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3416546922301981</v>
+        <v>0.3430953251051971</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3659391402411011</v>
+        <v>0.3647115943756659</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.429426657605888</v>
+        <v>0.4282454789954624</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.456689816400249</v>
+        <v>0.4562003215927979</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4692742991935429</v>
+        <v>0.4679289715026476</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4689459074201456</v>
+        <v>0.4693071033751439</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>414721</v>
+        <v>415362</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>402964</v>
+        <v>401628</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>404542</v>
+        <v>404951</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>361201</v>
+        <v>362182</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>161077</v>
+        <v>157517</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>153064</v>
+        <v>153670</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>161770</v>
+        <v>163079</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>201978</v>
+        <v>201751</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>578859</v>
+        <v>582974</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>564261</v>
+        <v>569694</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>580718</v>
+        <v>578472</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>576026</v>
+        <v>575074</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>466235</v>
+        <v>464812</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>453908</v>
+        <v>457385</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>458382</v>
+        <v>454330</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>416420</v>
+        <v>419210</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>206409</v>
+        <v>202793</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>200318</v>
+        <v>201502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>206373</v>
+        <v>209456</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>245156</v>
+        <v>243613</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>654769</v>
+        <v>658525</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>642831</v>
+        <v>641581</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>653257</v>
+        <v>650993</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>647024</v>
+        <v>654950</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>551756</v>
+        <v>551162</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>561679</v>
+        <v>566270</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>543802</v>
+        <v>541950</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>571969</v>
+        <v>577075</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>251875</v>
+        <v>249644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>269318</v>
+        <v>269421</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>293148</v>
+        <v>293795</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>324086</v>
+        <v>324782</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>818522</v>
+        <v>819765</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>844843</v>
+        <v>847348</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>854120</v>
+        <v>853066</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>917871</v>
+        <v>917910</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>613485</v>
+        <v>610004</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>627297</v>
+        <v>629871</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>608878</v>
+        <v>608708</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>644751</v>
+        <v>646515</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>307862</v>
+        <v>309121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>329035</v>
+        <v>332833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>354486</v>
+        <v>355375</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>381014</v>
+        <v>380107</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>908167</v>
+        <v>905096</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>938101</v>
+        <v>937556</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>944532</v>
+        <v>947979</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1009374</v>
+        <v>1014970</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>302144</v>
+        <v>303680</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>433638</v>
+        <v>431420</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>398731</v>
+        <v>401162</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>404499</v>
+        <v>405591</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>111899</v>
+        <v>111726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>182219</v>
+        <v>181465</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>208318</v>
+        <v>211475</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>269065</v>
+        <v>268372</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>425517</v>
+        <v>425634</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>631052</v>
+        <v>622909</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>620472</v>
+        <v>620377</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>685763</v>
+        <v>692390</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>357302</v>
+        <v>358391</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>489689</v>
+        <v>489913</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>459151</v>
+        <v>454996</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>469402</v>
+        <v>472560</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>149845</v>
+        <v>151925</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>237372</v>
+        <v>233052</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>263414</v>
+        <v>264025</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>318765</v>
+        <v>319898</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>495472</v>
+        <v>496850</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>713731</v>
+        <v>705950</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>699280</v>
+        <v>700298</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>772111</v>
+        <v>774952</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>500802</v>
+        <v>500095</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>531312</v>
+        <v>533032</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>546309</v>
+        <v>546520</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>534724</v>
+        <v>537561</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>274245</v>
+        <v>276178</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>335294</v>
+        <v>340099</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>377744</v>
+        <v>376718</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>410140</v>
+        <v>408095</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>788261</v>
+        <v>789555</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>885334</v>
+        <v>884299</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>940586</v>
+        <v>940618</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>960344</v>
+        <v>963420</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>560375</v>
+        <v>557723</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>593407</v>
+        <v>591370</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>608189</v>
+        <v>603312</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>600334</v>
+        <v>600621</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>333904</v>
+        <v>334034</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>403533</v>
+        <v>401942</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>442943</v>
+        <v>440995</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>467828</v>
+        <v>467504</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>878724</v>
+        <v>875863</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>976823</v>
+        <v>979305</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1030248</v>
+        <v>1031486</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1052283</v>
+        <v>1050234</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1824603</v>
+        <v>1823521</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1986714</v>
+        <v>1980559</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1953772</v>
+        <v>1945274</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1943458</v>
+        <v>1944116</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>846116</v>
+        <v>839665</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>998445</v>
+        <v>1003818</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1097642</v>
+        <v>1094901</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1251060</v>
+        <v>1257168</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2699439</v>
+        <v>2691705</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3012449</v>
+        <v>3011427</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3082008</v>
+        <v>3076651</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3226119</v>
+        <v>3221856</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1934480</v>
+        <v>1936489</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2104744</v>
+        <v>2102125</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2068168</v>
+        <v>2065992</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2072626</v>
+        <v>2078262</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>949907</v>
+        <v>946737</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1111665</v>
+        <v>1112148</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1208779</v>
+        <v>1213876</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1363811</v>
+        <v>1359236</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2858153</v>
+        <v>2850291</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3189120</v>
+        <v>3185702</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3252214</v>
+        <v>3242891</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3400837</v>
+        <v>3403456</v>
       </c>
     </row>
     <row r="24">
